--- a/conf-core/src/main/webapp/resources/import-templates/ccdb_signals_list.xlsx
+++ b/conf-core/src/main/webapp/resources/import-templates/ccdb_signals_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -49,9 +49,6 @@
     <t>SIGNAL DESCRIPTION</t>
   </si>
   <si>
-    <t>Template file to import signals list in the CCDB</t>
-  </si>
-  <si>
     <t>LGPL3</t>
   </si>
   <si>
@@ -73,20 +70,29 @@
     <t>European Spallation Source (ESS)</t>
   </si>
   <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2015/MAY/25</t>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2016/JAN/14</t>
+  </si>
+  <si>
+    <t>Template file to import/export signals list to/from the CCDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +104,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,10 +155,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -154,8 +169,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -470,13 +487,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1">
-        <f xml:space="preserve"> SUMPRODUCT((B9:B65536 &lt;&gt; "") / COUNTIF(B9:B65536, B9:B65536 &amp; ""))</f>
+        <f xml:space="preserve"> SUMPRODUCT((B10:B65536 &lt;&gt; "") / COUNTIF(B10:B65536, B10:B65536 &amp; ""))</f>
         <v>0</v>
       </c>
     </row>
@@ -485,13 +502,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <f xml:space="preserve"> SUM(E3:E6)</f>
+        <f xml:space="preserve"> SUM(E3:E7)</f>
         <v>0</v>
       </c>
     </row>
@@ -500,13 +517,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <f xml:space="preserve"> COUNTIF(A9:A65536, "CREATE")</f>
+        <f xml:space="preserve"> COUNTIF(A10:A65536, "CREATE")</f>
         <v>0</v>
       </c>
     </row>
@@ -515,13 +532,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> COUNTIF(A9:A65536, "UPDATE")</f>
+        <f xml:space="preserve"> COUNTIF(A10:A65536, "UPDATE")</f>
         <v>0</v>
       </c>
     </row>
@@ -530,13 +547,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <f xml:space="preserve"> COUNTIF(A9:A65536, "DELETE")</f>
+        <f xml:space="preserve"> COUNTIF(A10:A65536, "DELETE")</f>
         <v>0</v>
       </c>
     </row>
@@ -545,58 +562,67 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="D9" s="4"/>
-    </row>
     <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The device where the signal will be created, updated or deleted, depending on the selection made in the &quot;Operation&quot;._x000a__x000a_The device should exist as a slot in the CCDB before importing the file (otherwise the device will be ignored)." sqref="B8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the signal to be created or updated, depending on the selection made in the &quot;Operation&quot; menu. This field is optional in case the &quot;Operation&quot; is a deletion one._x000a__x000a_The signal name should be registered in the Naming System." sqref="D8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The description of the signal to be created or updated, depending on the selection made in the &quot;Operation&quot;._x000a_This field is optional in case the &quot;Operation&quot; is a deletion one." sqref="E8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The number of the signal to be created, updated or deleted, depending on the selection made in the &quot;Operation&quot;._x000a__x000a_The first signal usually starts with number 0 (zero)." sqref="C8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The device where the signal will be created, updated or deleted, depending on the selection made in the &quot;Operation&quot;._x000a__x000a_The device should exist as a slot in the CCDB before importing the file (otherwise the device will be ignored)." sqref="B9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the signal to be created or updated, depending on the selection made in the &quot;Operation&quot; menu. This field is optional in case the &quot;Operation&quot; is a deletion one._x000a__x000a_The signal name should be registered in the Naming System." sqref="D9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The description of the signal to be created or updated, depending on the selection made in the &quot;Operation&quot;._x000a_This field is optional in case the &quot;Operation&quot; is a deletion one." sqref="E9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The number of the signal to be created, updated or deleted, depending on the selection made in the &quot;Operation&quot;._x000a__x000a_The first signal usually starts with number 0 (zero)." sqref="C9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
       <formula1>"CREATE,UPDATE,DELETE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C1048576">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The operation to be performed:_x000a__x000a_CREATE - create a signal in the device._x000a__x000a_UPDATE - update the signal information from the device._x000a__x000a_DELETE - delete a signal from the device._x000a__x000a_To ignore a row leave the operation empty." sqref="A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The operation to be performed:_x000a__x000a_CREATE - create a signal in the device._x000a__x000a_UPDATE - update the signal information from the device._x000a__x000a_DELETE - delete a signal from the device._x000a__x000a_To ignore a row leave the operation empty." sqref="A9"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>